--- a/WorkBot/main/backend/ordering/Completed Orders/UNFI/UNFI_Easthill_20250621.xlsx
+++ b/WorkBot/main/backend/ordering/Completed Orders/UNFI/UNFI_Easthill_20250621.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +745,600 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1551282</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>That's It - Apple &amp; Strawberry (Fruit Bar)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0584847</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Terra - Veg Chips Sea Salt (5oz)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>0252387</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Terra - Veg Chips Sea Salt (1oz)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>294004-7</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Terra - Sweet Pot Chips Sweets &amp; Beets (6oz)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>275976-9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>So Good So You - Immunity Watermelon</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>275975-1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>So Good So You - Immunity Elderberry</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>286595-4</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>So Good So You - Happy Blood Orange</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>215786-5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>So Good So You - Detox Pineapple</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>253938-5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lundberg Family Farm - Mini Rice Cakes (White Cheddar)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>253940-1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Lundberg Family Farm - Mini Rice Cakes (Sea Salt)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>253939-3</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Lundberg Family Farm - Mini Rice Cakes (Ginger Seaweed)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>253941-9</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Lundberg Family Farm - Mini Rice Cakes (Apple Pie)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2858603</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Kind - Mlk Choc Peanut Butter</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>14.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>112599-6</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Kind - Madagascar Vanilla Almond</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0647719</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Justin's - Peanut Butter Cup (Mk Choc)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>46.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0647743</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Justin's - Peanut Butter Cup (Dk Choc)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>46.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1170059</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Food Should Taste Good - Tortilla Chips; Sweet Potato</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>41.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>41.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>117021-6</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Food Should Taste Good - Sweet Potato (1.5oz)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>183090-0</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Clio - Greek Yogurt Bar Vanilla</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>183096-7</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Clio - Greek Yogurt Bar Strawberry</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0467480</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Clif Bar - Peanut Butter</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>047216-7</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Clif Bar - Choc Chip</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
